--- a/V2/PartsToOrder.xlsx
+++ b/V2/PartsToOrder.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaeldegrande/OneDrive/School/Robotics Research/robotito-master/V2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\OneDrive\School\Robotics Research\robotito-master\V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_950A06904AEA1737DB5BF3EAB8006D9BB58AB06B" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{E59EDAD3-01BB-4B8F-97DC-441E148FC156}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="11240" tabRatio="992"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="16380" windowHeight="11235" tabRatio="992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Robotito</t>
   </si>
@@ -62,12 +63,6 @@
     <t>500 RPM motor</t>
   </si>
   <si>
-    <t>https://www.amazon.com/uxcell-1000RPM-Reduction-Gearbox-Engine/dp/B071NWVNZC/ref=sr_1_7_sspa?s=hi&amp;ie=UTF8&amp;qid=1522087276&amp;sr=1-7-spons&amp;keywords=6v%2Bmotor%2Bencoder%2B600%2Brpm&amp;th=1</t>
-  </si>
-  <si>
-    <t>***Make sure you pick 500rpm version</t>
-  </si>
-  <si>
     <t>Drums</t>
   </si>
   <si>
@@ -92,18 +87,6 @@
     <t>https://www.amazon.com/Machine-Stainless-Bright-Finish-Quantity/dp/B01LYTTKAF/ref=sr_1_2?s=industrial&amp;ie=UTF8&amp;qid=1522088512&amp;sr=1-2&amp;keywords=2-56+nuts</t>
   </si>
   <si>
-    <t>Proto Hat</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Raspberry-Prototyping-Breadboard-MakerSpot-Connector/dp/B01MY8TYSD/ref=sr_1_1?ie=UTF8&amp;qid=1522194100&amp;sr=8-1&amp;keywords=raspberry+pi+proto+hat</t>
-  </si>
-  <si>
-    <t>ADC</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Microchip-MCP3008-I-10-Bit-ADC-Pack/dp/B01HGCSGXM/ref=sr_1_1?ie=UTF8&amp;qid=1522193899&amp;sr=8-1&amp;keywords=MCP3008</t>
-  </si>
-  <si>
     <t>Camera</t>
   </si>
   <si>
@@ -128,16 +111,25 @@
     <t>Sensors</t>
   </si>
   <si>
-    <t>GP2Y0A41SK0F</t>
-  </si>
-  <si>
-    <t>16 Pin Socket</t>
+    <t>Adafruit VL53LOX</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Adafruit-Industries-VL53L0X-DISTANCE-Evaluation/dp/B06XPVJCZJ/ref=sr_1_3?ie=UTF8&amp;qid=1528135249&amp;sr=8-3&amp;keywords=ToF+sensor</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/uxcell-39RPM-Reduction-Gearbox-Engine/dp/B071L9WPD8/ref=sr_1_5?s=hi&amp;ie=UTF8&amp;qid=1528135343&amp;sr=1-5&amp;keywords=6V%2Bmotor%2Bwith%2Bencoder&amp;th=1</t>
+  </si>
+  <si>
+    <t>***Make sure you pick 300rpm version</t>
+  </si>
+  <si>
+    <t>Pi Camera V2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
@@ -281,15 +273,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -299,13 +282,24 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right/>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -314,7 +308,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -340,32 +334,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -803,26 +793,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="67.5" customWidth="1"/>
+    <col min="4" max="4" width="67.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -845,58 +835,58 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B5" s="31" t="s">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="26" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="27" t="s">
-        <v>28</v>
+      <c r="D5" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="E5" s="3">
         <v>25.98</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="18">
-        <f t="shared" ref="H5:H16" si="0">G5*E5+F5</f>
-        <v>25.98</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B6" s="32"/>
+        <v>5</v>
+      </c>
+      <c r="H5" s="15">
+        <f t="shared" ref="H5:H13" si="0">G5*E5+F5</f>
+        <v>129.9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="27"/>
       <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="28" t="s">
-        <v>11</v>
+      <c r="D6" s="24" t="s">
+        <v>29</v>
       </c>
       <c r="E6" s="4">
-        <v>13.23</v>
+        <v>15.09</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4">
-        <v>4</v>
-      </c>
-      <c r="H6" s="19">
+        <v>20</v>
+      </c>
+      <c r="H6" s="16">
         <f t="shared" si="0"/>
-        <v>52.92</v>
+        <v>301.8</v>
       </c>
       <c r="I6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="27"/>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="25" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B7" s="32"/>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>14</v>
       </c>
       <c r="E7" s="4">
         <v>5.99</v>
@@ -905,20 +895,20 @@
         <v>4.8899999999999997</v>
       </c>
       <c r="G7" s="4">
-        <v>2</v>
-      </c>
-      <c r="H7" s="19">
+        <v>10</v>
+      </c>
+      <c r="H7" s="16">
         <f t="shared" si="0"/>
-        <v>16.87</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B8" s="32"/>
+        <v>64.790000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="27"/>
       <c r="C8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>14</v>
       </c>
       <c r="E8" s="4">
         <v>4.99</v>
@@ -927,169 +917,129 @@
         <v>3.89</v>
       </c>
       <c r="G8" s="4">
-        <v>2</v>
-      </c>
-      <c r="H8" s="19">
+        <v>10</v>
+      </c>
+      <c r="H8" s="16">
         <f t="shared" si="0"/>
-        <v>13.870000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B9" s="32"/>
+        <v>53.790000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="27"/>
       <c r="C9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>16</v>
       </c>
       <c r="E9" s="4">
         <v>8</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="19">
+        <v>3</v>
+      </c>
+      <c r="H9" s="16">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B10" s="32"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="27"/>
       <c r="C10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>18</v>
       </c>
       <c r="E10" s="9">
         <v>8</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9">
-        <v>2</v>
-      </c>
-      <c r="H10" s="19">
+        <v>4</v>
+      </c>
+      <c r="H10" s="16">
         <f>G10*E10+F10</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B11" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="9"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="21">
+        <v>40</v>
+      </c>
       <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="19"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B12" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="30" t="s">
+      <c r="G11" s="21">
+        <v>21.95</v>
+      </c>
+      <c r="H11" s="16">
+        <f>G11*E11+F11</f>
+        <v>878</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="21">
+        <v>36.99</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="21">
+        <v>5</v>
+      </c>
+      <c r="H12" s="16">
+        <f>G12*E12+F12</f>
+        <v>184.95000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="24">
-        <v>36.99</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="24">
-        <v>1</v>
-      </c>
-      <c r="H12" s="19">
-        <f>G12*E12+F12</f>
-        <v>36.99</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B13" s="15" t="s">
+      <c r="D13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="13">
+        <v>24.99</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="13">
+        <v>5</v>
+      </c>
+      <c r="H13" s="17">
+        <f t="shared" si="0"/>
+        <v>124.94999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G15" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="16">
-        <v>7.99</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16">
-        <v>1</v>
-      </c>
-      <c r="H13" s="19">
-        <f>G13*E13+F13</f>
-        <v>7.99</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B14" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="19"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B15" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="16">
-        <v>12.5</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16">
-        <v>1</v>
-      </c>
       <c r="H15" s="19">
-        <f>G15*E15+F15</f>
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B16" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="13">
-        <v>24.99</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="13">
-        <v>1</v>
-      </c>
-      <c r="H16" s="20">
-        <f t="shared" si="0"/>
-        <v>24.99</v>
-      </c>
-    </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.15">
-      <c r="H17" s="21"/>
-    </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.15">
-      <c r="G18" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="22">
-        <f>SUM(H5:H16)</f>
-        <v>216.11000000000004</v>
+        <f>SUM(H5:H13)</f>
+        <v>1794.1800000000003</v>
       </c>
     </row>
   </sheetData>
@@ -1098,14 +1048,12 @@
     <mergeCell ref="B5:B10"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1"/>
-    <hyperlink ref="D7" r:id="rId2"/>
-    <hyperlink ref="D8" r:id="rId3"/>
-    <hyperlink ref="D9" r:id="rId4"/>
-    <hyperlink ref="D10" r:id="rId5"/>
-    <hyperlink ref="D15" r:id="rId6"/>
-    <hyperlink ref="D13" r:id="rId7"/>
-    <hyperlink ref="D5" r:id="rId8"/>
+    <hyperlink ref="D6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
